--- a/biology/Zoologie/Cryphoeca_lichenum/Cryphoeca_lichenum.xlsx
+++ b/biology/Zoologie/Cryphoeca_lichenum/Cryphoeca_lichenum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryphoeca lichenum est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryphoeca lichenum est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Autriche et en Allemagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Autriche et en Allemagne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 18.5, 28/11/2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 18.5, 28/11/2017) :
 Cryphoeca lichenum lichenum L. Koch, 1876
 Cryphoeca lichenum nigerrima Thaler, 1978</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1876 : Verzeichniss der in Tirol bis jetzt beobachteten Arachniden nebst Beschreibungen einiger neuen oder weniger bekannten Arten. Zeitschrift des Ferdinandeums für Tirol und Vorarlberg, vol. 3, no 20, p. 221-354.
 Thaler, 1978 : Die Gattung Cryphoeca in den Alpen (Arachnida, Aranei, Agelenidae). Zoologischer Anzeiger, vol. 200, p. 334-346.</t>
